--- a/pga.xlsx
+++ b/pga.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15660" windowWidth="28800" xWindow="0" yWindow="440"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15660" windowWidth="28800" xWindow="0" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" state="visible" r:id="rId1"/>
@@ -350,8 +350,8 @@
   </sheetPr>
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10146,7 +10146,7 @@
   <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19941,7 +19941,7 @@
   <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27656,7 +27656,7 @@
   <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -35370,8 +35370,8 @@
   </sheetPr>
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
